--- a/Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C949FFC7-5881-4CB7-99A9-3D0DAA8AFD1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASFY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,142 +689,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>75681400</v>
+        <v>70320700</v>
       </c>
       <c r="E8" s="3">
-        <v>67552800</v>
+        <v>68691600</v>
       </c>
       <c r="F8" s="3">
-        <v>82693700</v>
+        <v>64570500</v>
       </c>
       <c r="G8" s="3">
-        <v>87244600</v>
+        <v>79043100</v>
       </c>
       <c r="H8" s="3">
-        <v>86830200</v>
+        <v>83393000</v>
       </c>
       <c r="I8" s="3">
-        <v>84665700</v>
+        <v>82997000</v>
       </c>
       <c r="J8" s="3">
+        <v>80928000</v>
+      </c>
+      <c r="K8" s="3">
         <v>86271500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>51564300</v>
+        <v>49725500</v>
       </c>
       <c r="E9" s="3">
-        <v>46089600</v>
+        <v>46664700</v>
       </c>
       <c r="F9" s="3">
-        <v>60301000</v>
+        <v>44054900</v>
       </c>
       <c r="G9" s="3">
-        <v>65544400</v>
+        <v>57638900</v>
       </c>
       <c r="H9" s="3">
-        <v>65235700</v>
+        <v>62650800</v>
       </c>
       <c r="I9" s="3">
-        <v>131804800</v>
+        <v>62355700</v>
       </c>
       <c r="J9" s="3">
+        <v>125986000</v>
+      </c>
+      <c r="K9" s="3">
         <v>63369300</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>24117100</v>
+        <v>20595200</v>
       </c>
       <c r="E10" s="3">
-        <v>21463100</v>
+        <v>22026900</v>
       </c>
       <c r="F10" s="3">
-        <v>22392800</v>
+        <v>20515600</v>
       </c>
       <c r="G10" s="3">
-        <v>21700200</v>
+        <v>21404200</v>
       </c>
       <c r="H10" s="3">
-        <v>21594600</v>
+        <v>20742200</v>
       </c>
       <c r="I10" s="3">
-        <v>-47139000</v>
+        <v>20641300</v>
       </c>
       <c r="J10" s="3">
+        <v>-45058000</v>
+      </c>
+      <c r="K10" s="3">
         <v>22902200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,35 +849,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2216200</v>
+        <v>2275400</v>
       </c>
       <c r="E12" s="3">
-        <v>2186800</v>
+        <v>2067800</v>
       </c>
       <c r="F12" s="3">
-        <v>2292500</v>
+        <v>2090300</v>
       </c>
       <c r="G12" s="3">
-        <v>2211500</v>
+        <v>2191200</v>
       </c>
       <c r="H12" s="3">
-        <v>2170400</v>
+        <v>2113800</v>
       </c>
       <c r="I12" s="3">
-        <v>4343100</v>
+        <v>2074600</v>
       </c>
       <c r="J12" s="3">
+        <v>4151400</v>
+      </c>
+      <c r="K12" s="3">
         <v>2099900</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,63 +906,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>392100</v>
+        <v>462300</v>
       </c>
       <c r="E14" s="3">
-        <v>565800</v>
+        <v>402800</v>
       </c>
       <c r="F14" s="3">
-        <v>359200</v>
+        <v>540800</v>
       </c>
       <c r="G14" s="3">
-        <v>206600</v>
+        <v>343300</v>
       </c>
       <c r="H14" s="3">
-        <v>370900</v>
+        <v>197500</v>
       </c>
       <c r="I14" s="3">
-        <v>442500</v>
+        <v>354500</v>
       </c>
       <c r="J14" s="3">
+        <v>423000</v>
+      </c>
+      <c r="K14" s="3">
         <v>273500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>365100</v>
+        <v>80800</v>
       </c>
       <c r="E15" s="3">
-        <v>395600</v>
+        <v>248000</v>
       </c>
       <c r="F15" s="3">
-        <v>792300</v>
+        <v>378100</v>
       </c>
       <c r="G15" s="3">
-        <v>434300</v>
+        <v>757300</v>
       </c>
       <c r="H15" s="3">
-        <v>291100</v>
+        <v>415100</v>
       </c>
       <c r="I15" s="3">
-        <v>442500</v>
+        <v>278300</v>
       </c>
       <c r="J15" s="3">
+        <v>423000</v>
+      </c>
+      <c r="K15" s="3">
         <v>429600</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,62 +980,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>65678200</v>
+        <v>63551800</v>
       </c>
       <c r="E17" s="3">
-        <v>60187100</v>
+        <v>60179100</v>
       </c>
       <c r="F17" s="3">
-        <v>75359800</v>
+        <v>57530000</v>
       </c>
       <c r="G17" s="3">
-        <v>78293100</v>
+        <v>72032900</v>
       </c>
       <c r="H17" s="3">
-        <v>78425800</v>
+        <v>74836700</v>
       </c>
       <c r="I17" s="3">
-        <v>76751900</v>
+        <v>74963500</v>
       </c>
       <c r="J17" s="3">
+        <v>73363600</v>
+      </c>
+      <c r="K17" s="3">
         <v>76193200</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10003200</v>
+        <v>6769000</v>
       </c>
       <c r="E18" s="3">
-        <v>7365700</v>
+        <v>8512500</v>
       </c>
       <c r="F18" s="3">
-        <v>7334000</v>
+        <v>7040500</v>
       </c>
       <c r="G18" s="3">
-        <v>8951500</v>
+        <v>7010200</v>
       </c>
       <c r="H18" s="3">
-        <v>8404500</v>
+        <v>8556300</v>
       </c>
       <c r="I18" s="3">
-        <v>7913800</v>
+        <v>8033400</v>
       </c>
       <c r="J18" s="3">
+        <v>7564500</v>
+      </c>
+      <c r="K18" s="3">
         <v>10078300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -986,143 +1054,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-270000</v>
+        <v>-263700</v>
       </c>
       <c r="E20" s="3">
-        <v>-365100</v>
+        <v>-280500</v>
       </c>
       <c r="F20" s="3">
-        <v>-247700</v>
+        <v>-348900</v>
       </c>
       <c r="G20" s="3">
-        <v>154900</v>
+        <v>-236700</v>
       </c>
       <c r="H20" s="3">
-        <v>23500</v>
+        <v>148100</v>
       </c>
       <c r="I20" s="3">
-        <v>755900</v>
+        <v>22400</v>
       </c>
       <c r="J20" s="3">
+        <v>722600</v>
+      </c>
+      <c r="K20" s="3">
         <v>1346400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>14681900</v>
+        <v>10722900</v>
       </c>
       <c r="E21" s="3">
-        <v>12040900</v>
+        <v>12970400</v>
       </c>
       <c r="F21" s="3">
-        <v>12311000</v>
+        <v>11517600</v>
       </c>
       <c r="G21" s="3">
-        <v>13164700</v>
+        <v>11776100</v>
       </c>
       <c r="H21" s="3">
-        <v>12320600</v>
+        <v>12590200</v>
       </c>
       <c r="I21" s="3">
-        <v>12531900</v>
+        <v>11783100</v>
       </c>
       <c r="J21" s="3">
+        <v>11985000</v>
+      </c>
+      <c r="K21" s="3">
         <v>15440700</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>577500</v>
+        <v>572200</v>
       </c>
       <c r="E22" s="3">
-        <v>667900</v>
+        <v>510500</v>
       </c>
       <c r="F22" s="3">
-        <v>574000</v>
+        <v>638400</v>
       </c>
       <c r="G22" s="3">
-        <v>651500</v>
+        <v>548700</v>
       </c>
       <c r="H22" s="3">
-        <v>680800</v>
+        <v>622700</v>
       </c>
       <c r="I22" s="3">
-        <v>1653900</v>
+        <v>650800</v>
       </c>
       <c r="J22" s="3">
+        <v>1580900</v>
+      </c>
+      <c r="K22" s="3">
         <v>895600</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>9155700</v>
+        <v>5933100</v>
       </c>
       <c r="E23" s="3">
-        <v>6332700</v>
+        <v>7721500</v>
       </c>
       <c r="F23" s="3">
-        <v>6512300</v>
+        <v>6053100</v>
       </c>
       <c r="G23" s="3">
-        <v>8455000</v>
+        <v>6224800</v>
       </c>
       <c r="H23" s="3">
-        <v>7747100</v>
+        <v>8081700</v>
       </c>
       <c r="I23" s="3">
-        <v>7015900</v>
+        <v>7405100</v>
       </c>
       <c r="J23" s="3">
+        <v>6706100</v>
+      </c>
+      <c r="K23" s="3">
         <v>10529100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2144600</v>
+        <v>1754800</v>
       </c>
       <c r="E24" s="3">
-        <v>1338100</v>
+        <v>1447400</v>
       </c>
       <c r="F24" s="3">
-        <v>1463700</v>
+        <v>1279100</v>
       </c>
       <c r="G24" s="3">
-        <v>2008400</v>
+        <v>1399100</v>
       </c>
       <c r="H24" s="3">
-        <v>1745500</v>
+        <v>1919700</v>
       </c>
       <c r="I24" s="3">
-        <v>1068200</v>
+        <v>1668400</v>
       </c>
       <c r="J24" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="K24" s="3">
         <v>2778400</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,63 +1231,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>7011200</v>
+        <v>4178300</v>
       </c>
       <c r="E26" s="3">
-        <v>4994600</v>
+        <v>6274200</v>
       </c>
       <c r="F26" s="3">
-        <v>5048600</v>
+        <v>4774100</v>
       </c>
       <c r="G26" s="3">
-        <v>6446600</v>
+        <v>4825700</v>
       </c>
       <c r="H26" s="3">
-        <v>6001700</v>
+        <v>6162000</v>
       </c>
       <c r="I26" s="3">
-        <v>5947700</v>
+        <v>5736700</v>
       </c>
       <c r="J26" s="3">
+        <v>5685100</v>
+      </c>
+      <c r="K26" s="3">
         <v>7750700</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>6689500</v>
+        <v>3873100</v>
       </c>
       <c r="E27" s="3">
-        <v>4761000</v>
+        <v>5966700</v>
       </c>
       <c r="F27" s="3">
-        <v>4680000</v>
+        <v>4550800</v>
       </c>
       <c r="G27" s="3">
-        <v>6051000</v>
+        <v>4473400</v>
       </c>
       <c r="H27" s="3">
-        <v>5624900</v>
+        <v>5783900</v>
       </c>
       <c r="I27" s="3">
-        <v>5254000</v>
+        <v>5376600</v>
       </c>
       <c r="J27" s="3">
+        <v>5022000</v>
+      </c>
+      <c r="K27" s="3">
         <v>7263500</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1228,17 +1321,20 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>444900</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+        <v>1408100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1277900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1255,9 +1351,12 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,9 +1381,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,63 +1411,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>270000</v>
+        <v>263700</v>
       </c>
       <c r="E32" s="3">
-        <v>365100</v>
+        <v>280500</v>
       </c>
       <c r="F32" s="3">
-        <v>247700</v>
+        <v>348900</v>
       </c>
       <c r="G32" s="3">
-        <v>-154900</v>
+        <v>236700</v>
       </c>
       <c r="H32" s="3">
-        <v>-23500</v>
+        <v>-148100</v>
       </c>
       <c r="I32" s="3">
-        <v>-755900</v>
+        <v>-22400</v>
       </c>
       <c r="J32" s="3">
+        <v>-722600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1346400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7134400</v>
+        <v>5281200</v>
       </c>
       <c r="E33" s="3">
-        <v>4761000</v>
+        <v>7244700</v>
       </c>
       <c r="F33" s="3">
-        <v>4680000</v>
+        <v>4550800</v>
       </c>
       <c r="G33" s="3">
-        <v>6051000</v>
+        <v>4473400</v>
       </c>
       <c r="H33" s="3">
-        <v>5624900</v>
+        <v>5783900</v>
       </c>
       <c r="I33" s="3">
-        <v>5254000</v>
+        <v>5376600</v>
       </c>
       <c r="J33" s="3">
+        <v>5022000</v>
+      </c>
+      <c r="K33" s="3">
         <v>7263500</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,68 +1501,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7134400</v>
+        <v>5281200</v>
       </c>
       <c r="E35" s="3">
-        <v>4761000</v>
+        <v>7244700</v>
       </c>
       <c r="F35" s="3">
-        <v>4680000</v>
+        <v>4550800</v>
       </c>
       <c r="G35" s="3">
-        <v>6051000</v>
+        <v>4473400</v>
       </c>
       <c r="H35" s="3">
-        <v>5624900</v>
+        <v>5783900</v>
       </c>
       <c r="I35" s="3">
-        <v>5254000</v>
+        <v>5376600</v>
       </c>
       <c r="J35" s="3">
+        <v>5022000</v>
+      </c>
+      <c r="K35" s="3">
         <v>7263500</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,8 +1583,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,251 +1597,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7623900</v>
+        <v>2580600</v>
       </c>
       <c r="E41" s="3">
-        <v>1614000</v>
+        <v>7287300</v>
       </c>
       <c r="F41" s="3">
-        <v>2630500</v>
+        <v>1542700</v>
       </c>
       <c r="G41" s="3">
-        <v>2016600</v>
+        <v>2514400</v>
       </c>
       <c r="H41" s="3">
-        <v>2144600</v>
+        <v>1927600</v>
       </c>
       <c r="I41" s="3">
-        <v>4019100</v>
+        <v>2049900</v>
       </c>
       <c r="J41" s="3">
+        <v>3841700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4637700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>61000</v>
+        <v>386000</v>
       </c>
       <c r="E42" s="3">
-        <v>629200</v>
+        <v>58300</v>
       </c>
       <c r="F42" s="3">
-        <v>24700</v>
+        <v>601400</v>
       </c>
       <c r="G42" s="3">
-        <v>22300</v>
+        <v>23600</v>
       </c>
       <c r="H42" s="3">
-        <v>20000</v>
+        <v>21300</v>
       </c>
       <c r="I42" s="3">
-        <v>43400</v>
+        <v>19100</v>
       </c>
       <c r="J42" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K42" s="3">
         <v>38700</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16110500</v>
+        <v>14955000</v>
       </c>
       <c r="E43" s="3">
-        <v>15872300</v>
+        <v>15399300</v>
       </c>
       <c r="F43" s="3">
-        <v>14039900</v>
+        <v>15171500</v>
       </c>
       <c r="G43" s="3">
-        <v>14514200</v>
+        <v>13420100</v>
       </c>
       <c r="H43" s="3">
-        <v>15036500</v>
+        <v>13873400</v>
       </c>
       <c r="I43" s="3">
-        <v>29415700</v>
+        <v>14372700</v>
       </c>
       <c r="J43" s="3">
+        <v>28117100</v>
+      </c>
+      <c r="K43" s="3">
         <v>32577900</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>12093800</v>
+        <v>13650100</v>
       </c>
       <c r="E44" s="3">
-        <v>11744000</v>
+        <v>11559900</v>
       </c>
       <c r="F44" s="3">
-        <v>11377700</v>
+        <v>11225500</v>
       </c>
       <c r="G44" s="3">
-        <v>13224100</v>
+        <v>10875400</v>
       </c>
       <c r="H44" s="3">
-        <v>11925900</v>
+        <v>12640300</v>
       </c>
       <c r="I44" s="3">
-        <v>22902200</v>
+        <v>11399400</v>
       </c>
       <c r="J44" s="3">
+        <v>21891100</v>
+      </c>
+      <c r="K44" s="3">
         <v>23165100</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>669100</v>
+        <v>16921900</v>
       </c>
       <c r="E45" s="3">
-        <v>596300</v>
+        <v>639500</v>
       </c>
       <c r="F45" s="3">
-        <v>763000</v>
+        <v>570000</v>
       </c>
       <c r="G45" s="3">
-        <v>2408700</v>
+        <v>729300</v>
       </c>
       <c r="H45" s="3">
-        <v>4654200</v>
+        <v>2302300</v>
       </c>
       <c r="I45" s="3">
-        <v>9653400</v>
+        <v>4448700</v>
       </c>
       <c r="J45" s="3">
+        <v>9227200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1564700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>36558300</v>
+        <v>48493500</v>
       </c>
       <c r="E46" s="3">
-        <v>30455700</v>
+        <v>34944400</v>
       </c>
       <c r="F46" s="3">
-        <v>28835800</v>
+        <v>29111200</v>
       </c>
       <c r="G46" s="3">
-        <v>32185900</v>
+        <v>27562800</v>
       </c>
       <c r="H46" s="3">
-        <v>30461500</v>
+        <v>30765000</v>
       </c>
       <c r="I46" s="3">
-        <v>32241000</v>
+        <v>29116800</v>
       </c>
       <c r="J46" s="3">
+        <v>30817700</v>
+      </c>
+      <c r="K46" s="3">
         <v>30188000</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6245800</v>
+        <v>3111300</v>
       </c>
       <c r="E47" s="3">
-        <v>6164900</v>
+        <v>5970100</v>
       </c>
       <c r="F47" s="3">
-        <v>5824400</v>
+        <v>5892700</v>
       </c>
       <c r="G47" s="3">
-        <v>4442900</v>
+        <v>5567300</v>
       </c>
       <c r="H47" s="3">
-        <v>5654200</v>
+        <v>4246700</v>
       </c>
       <c r="I47" s="3">
-        <v>8213100</v>
+        <v>6388600</v>
       </c>
       <c r="J47" s="3">
+        <v>8872700</v>
+      </c>
+      <c r="K47" s="3">
         <v>7939700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29648100</v>
+        <v>23315000</v>
       </c>
       <c r="E48" s="3">
-        <v>31003800</v>
+        <v>28339200</v>
       </c>
       <c r="F48" s="3">
-        <v>29650400</v>
+        <v>29635100</v>
       </c>
       <c r="G48" s="3">
-        <v>27579800</v>
+        <v>28341500</v>
       </c>
       <c r="H48" s="3">
-        <v>22571200</v>
+        <v>26362300</v>
       </c>
       <c r="I48" s="3">
-        <v>40833300</v>
+        <v>21574700</v>
       </c>
       <c r="J48" s="3">
+        <v>39030700</v>
+      </c>
+      <c r="K48" s="3">
         <v>40083300</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15956800</v>
+        <v>18573400</v>
       </c>
       <c r="E49" s="3">
-        <v>17797300</v>
+        <v>15252300</v>
       </c>
       <c r="F49" s="3">
-        <v>14716100</v>
+        <v>17011600</v>
       </c>
       <c r="G49" s="3">
-        <v>15220800</v>
+        <v>14066400</v>
       </c>
       <c r="H49" s="3">
-        <v>14466000</v>
+        <v>14548800</v>
       </c>
       <c r="I49" s="3">
-        <v>28680900</v>
+        <v>13827400</v>
       </c>
       <c r="J49" s="3">
+        <v>27414700</v>
+      </c>
+      <c r="K49" s="3">
         <v>27900300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,9 +1894,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,36 +1924,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4049600</v>
+        <v>3621800</v>
       </c>
       <c r="E52" s="3">
-        <v>4370100</v>
+        <v>3870900</v>
       </c>
       <c r="F52" s="3">
-        <v>4121200</v>
+        <v>4177200</v>
       </c>
       <c r="G52" s="3">
-        <v>4332500</v>
+        <v>3939300</v>
       </c>
       <c r="H52" s="3">
-        <v>2210300</v>
+        <v>4141300</v>
       </c>
       <c r="I52" s="3">
-        <v>5374900</v>
+        <v>1128700</v>
       </c>
       <c r="J52" s="3">
+        <v>4115500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3732700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,36 +1984,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92458700</v>
+        <v>97115000</v>
       </c>
       <c r="E54" s="3">
-        <v>89791800</v>
+        <v>88376900</v>
       </c>
       <c r="F54" s="3">
-        <v>83148000</v>
+        <v>85827700</v>
       </c>
       <c r="G54" s="3">
-        <v>83761900</v>
+        <v>79477300</v>
       </c>
       <c r="H54" s="3">
-        <v>75363300</v>
+        <v>80064100</v>
       </c>
       <c r="I54" s="3">
-        <v>73628400</v>
+        <v>72036200</v>
       </c>
       <c r="J54" s="3">
+        <v>70377900</v>
+      </c>
+      <c r="K54" s="3">
         <v>69832300</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,8 +2031,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,170 +2045,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5835000</v>
+        <v>5746800</v>
       </c>
       <c r="E57" s="3">
-        <v>5411300</v>
+        <v>5577400</v>
       </c>
       <c r="F57" s="3">
-        <v>4718700</v>
+        <v>5172400</v>
       </c>
       <c r="G57" s="3">
-        <v>5705900</v>
+        <v>4510400</v>
       </c>
       <c r="H57" s="3">
-        <v>6048600</v>
+        <v>5454000</v>
       </c>
       <c r="I57" s="3">
-        <v>10796700</v>
+        <v>5781600</v>
       </c>
       <c r="J57" s="3">
+        <v>10320100</v>
+      </c>
+      <c r="K57" s="3">
         <v>11677100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2931000</v>
+        <v>6181000</v>
       </c>
       <c r="E58" s="3">
-        <v>4447600</v>
+        <v>2801600</v>
       </c>
       <c r="F58" s="3">
-        <v>4807900</v>
+        <v>4251200</v>
       </c>
       <c r="G58" s="3">
-        <v>4183500</v>
+        <v>4595700</v>
       </c>
       <c r="H58" s="3">
-        <v>3837200</v>
+        <v>3998800</v>
       </c>
       <c r="I58" s="3">
-        <v>9810700</v>
+        <v>3667800</v>
       </c>
       <c r="J58" s="3">
+        <v>9377600</v>
+      </c>
+      <c r="K58" s="3">
         <v>9188600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8700300</v>
+        <v>14247000</v>
       </c>
       <c r="E59" s="3">
-        <v>8120400</v>
+        <v>8316200</v>
       </c>
       <c r="F59" s="3">
-        <v>7183700</v>
+        <v>7761900</v>
       </c>
       <c r="G59" s="3">
-        <v>8766000</v>
+        <v>6866600</v>
       </c>
       <c r="H59" s="3">
-        <v>9991500</v>
+        <v>8379000</v>
       </c>
       <c r="I59" s="3">
-        <v>19351400</v>
+        <v>9550400</v>
       </c>
       <c r="J59" s="3">
+        <v>18497100</v>
+      </c>
+      <c r="K59" s="3">
         <v>16962700</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17466300</v>
+        <v>26174900</v>
       </c>
       <c r="E60" s="3">
-        <v>17979200</v>
+        <v>16695200</v>
       </c>
       <c r="F60" s="3">
-        <v>16710400</v>
+        <v>17185500</v>
       </c>
       <c r="G60" s="3">
-        <v>18655400</v>
+        <v>15972600</v>
       </c>
       <c r="H60" s="3">
-        <v>16831300</v>
+        <v>17831800</v>
       </c>
       <c r="I60" s="3">
-        <v>19614400</v>
+        <v>16088200</v>
       </c>
       <c r="J60" s="3">
+        <v>18748500</v>
+      </c>
+      <c r="K60" s="3">
         <v>18487500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18351300</v>
+        <v>17304500</v>
       </c>
       <c r="E61" s="3">
-        <v>14824000</v>
+        <v>17541200</v>
       </c>
       <c r="F61" s="3">
-        <v>13126700</v>
+        <v>14169600</v>
       </c>
       <c r="G61" s="3">
-        <v>13980100</v>
+        <v>12547200</v>
       </c>
       <c r="H61" s="3">
-        <v>13173700</v>
+        <v>13362900</v>
       </c>
       <c r="I61" s="3">
-        <v>10288400</v>
+        <v>12592100</v>
       </c>
       <c r="J61" s="3">
+        <v>9834200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10176900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15844100</v>
+        <v>13121700</v>
       </c>
       <c r="E62" s="3">
-        <v>18759800</v>
+        <v>15144600</v>
       </c>
       <c r="F62" s="3">
-        <v>16283100</v>
+        <v>17931600</v>
       </c>
       <c r="G62" s="3">
-        <v>18030900</v>
+        <v>15564200</v>
       </c>
       <c r="H62" s="3">
-        <v>12875500</v>
+        <v>17234900</v>
       </c>
       <c r="I62" s="3">
-        <v>27755900</v>
+        <v>12307100</v>
       </c>
       <c r="J62" s="3">
+        <v>26530600</v>
+      </c>
+      <c r="K62" s="3">
         <v>23594800</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,9 +2252,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2095,9 +2282,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,36 +2312,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52740500</v>
+        <v>57784700</v>
       </c>
       <c r="E66" s="3">
-        <v>52456400</v>
+        <v>50412100</v>
       </c>
       <c r="F66" s="3">
-        <v>46858500</v>
+        <v>50140600</v>
       </c>
       <c r="G66" s="3">
-        <v>51348300</v>
+        <v>44789800</v>
       </c>
       <c r="H66" s="3">
-        <v>43620000</v>
+        <v>49081500</v>
       </c>
       <c r="I66" s="3">
-        <v>44739800</v>
+        <v>41694300</v>
       </c>
       <c r="J66" s="3">
+        <v>42764600</v>
+      </c>
+      <c r="K66" s="3">
         <v>41455400</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,8 +2359,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,9 +2386,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,9 +2416,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,9 +2446,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,36 +2476,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44537900</v>
+        <v>44674300</v>
       </c>
       <c r="E72" s="3">
-        <v>40666600</v>
+        <v>42571700</v>
       </c>
       <c r="F72" s="3">
-        <v>39042100</v>
+        <v>38871300</v>
       </c>
       <c r="G72" s="3">
-        <v>37468000</v>
+        <v>37318500</v>
       </c>
       <c r="H72" s="3">
-        <v>34353900</v>
+        <v>35813900</v>
       </c>
       <c r="I72" s="3">
-        <v>55171400</v>
+        <v>32837300</v>
       </c>
       <c r="J72" s="3">
+        <v>52735800</v>
+      </c>
+      <c r="K72" s="3">
         <v>51432800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,9 +2536,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,9 +2566,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,36 +2596,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39718200</v>
+        <v>39330200</v>
       </c>
       <c r="E76" s="3">
-        <v>37335400</v>
+        <v>37964800</v>
       </c>
       <c r="F76" s="3">
-        <v>36289500</v>
+        <v>35687100</v>
       </c>
       <c r="G76" s="3">
-        <v>32413600</v>
+        <v>34687400</v>
       </c>
       <c r="H76" s="3">
-        <v>31743300</v>
+        <v>30982600</v>
       </c>
       <c r="I76" s="3">
-        <v>28888600</v>
+        <v>30342000</v>
       </c>
       <c r="J76" s="3">
+        <v>27613300</v>
+      </c>
+      <c r="K76" s="3">
         <v>28376900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,68 +2656,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7134400</v>
+        <v>5281200</v>
       </c>
       <c r="E81" s="3">
-        <v>4761000</v>
+        <v>7244700</v>
       </c>
       <c r="F81" s="3">
-        <v>4680000</v>
+        <v>4550800</v>
       </c>
       <c r="G81" s="3">
-        <v>6051000</v>
+        <v>4473400</v>
       </c>
       <c r="H81" s="3">
-        <v>5624900</v>
+        <v>5783900</v>
       </c>
       <c r="I81" s="3">
-        <v>5254000</v>
+        <v>5376600</v>
       </c>
       <c r="J81" s="3">
+        <v>5022000</v>
+      </c>
+      <c r="K81" s="3">
         <v>7263500</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,35 +2738,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4945300</v>
+        <v>4207500</v>
       </c>
       <c r="E83" s="3">
-        <v>5036800</v>
+        <v>4726900</v>
       </c>
       <c r="F83" s="3">
-        <v>5221100</v>
+        <v>4814500</v>
       </c>
       <c r="G83" s="3">
-        <v>4055500</v>
+        <v>4990600</v>
       </c>
       <c r="H83" s="3">
-        <v>3890000</v>
+        <v>3876500</v>
       </c>
       <c r="I83" s="3">
-        <v>3859500</v>
+        <v>3718300</v>
       </c>
       <c r="J83" s="3">
+        <v>3689100</v>
+      </c>
+      <c r="K83" s="3">
         <v>4013300</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,9 +2795,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,9 +2825,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,9 +2855,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,9 +2885,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,36 +2915,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>10322500</v>
+        <v>8907500</v>
       </c>
       <c r="E89" s="3">
-        <v>9059500</v>
+        <v>9866800</v>
       </c>
       <c r="F89" s="3">
-        <v>11092500</v>
+        <v>8659500</v>
       </c>
       <c r="G89" s="3">
-        <v>8163800</v>
+        <v>10602800</v>
       </c>
       <c r="H89" s="3">
-        <v>9509000</v>
+        <v>7803400</v>
       </c>
       <c r="I89" s="3">
-        <v>7751800</v>
+        <v>9089200</v>
       </c>
       <c r="J89" s="3">
+        <v>7409600</v>
+      </c>
+      <c r="K89" s="3">
         <v>8336400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,35 +2962,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4690500</v>
+        <v>-4369000</v>
       </c>
       <c r="E91" s="3">
-        <v>-4865400</v>
+        <v>-4483500</v>
       </c>
       <c r="F91" s="3">
-        <v>-6822200</v>
+        <v>-4650600</v>
       </c>
       <c r="G91" s="3">
-        <v>-6216500</v>
+        <v>-6521000</v>
       </c>
       <c r="H91" s="3">
-        <v>-5720000</v>
+        <v>-5942100</v>
       </c>
       <c r="I91" s="3">
-        <v>-4712800</v>
+        <v>-5467500</v>
       </c>
       <c r="J91" s="3">
+        <v>-4504800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4002700</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,9 +3019,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,36 +3049,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4645900</v>
+        <v>-13244000</v>
       </c>
       <c r="E94" s="3">
-        <v>-7618000</v>
+        <v>-4440800</v>
       </c>
       <c r="F94" s="3">
-        <v>-6144900</v>
+        <v>-7281700</v>
       </c>
       <c r="G94" s="3">
-        <v>-5277400</v>
+        <v>-5873600</v>
       </c>
       <c r="H94" s="3">
-        <v>-7035800</v>
+        <v>-5044500</v>
       </c>
       <c r="I94" s="3">
-        <v>-4668200</v>
+        <v>-6725200</v>
       </c>
       <c r="J94" s="3">
+        <v>-4462200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2040100</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,35 +3096,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3233800</v>
+        <v>-3194300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3127000</v>
+        <v>-3091100</v>
       </c>
       <c r="F96" s="3">
-        <v>-3019000</v>
+        <v>-2989000</v>
       </c>
       <c r="G96" s="3">
-        <v>-2911000</v>
+        <v>-2885800</v>
       </c>
       <c r="H96" s="3">
-        <v>-2803100</v>
+        <v>-2782500</v>
       </c>
       <c r="I96" s="3">
-        <v>-2695100</v>
+        <v>-2679300</v>
       </c>
       <c r="J96" s="3">
+        <v>-2576100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2372300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,9 +3153,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,9 +3183,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,88 +3213,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>462500</v>
+        <v>-58300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2535400</v>
+        <v>442100</v>
       </c>
       <c r="F100" s="3">
-        <v>-4311400</v>
+        <v>-2423500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2908700</v>
+        <v>-4121100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2199700</v>
+        <v>-2780300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3408700</v>
+        <v>-2102600</v>
       </c>
       <c r="J100" s="3">
+        <v>-3258300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5655400</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-129100</v>
+        <v>-66200</v>
       </c>
       <c r="E101" s="3">
-        <v>77500</v>
+        <v>-123400</v>
       </c>
       <c r="F101" s="3">
-        <v>-22300</v>
+        <v>74100</v>
       </c>
       <c r="G101" s="3">
-        <v>-105600</v>
+        <v>-21300</v>
       </c>
       <c r="H101" s="3">
-        <v>-70400</v>
+        <v>-101000</v>
       </c>
       <c r="I101" s="3">
-        <v>24700</v>
+        <v>-67300</v>
       </c>
       <c r="J101" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K101" s="3">
         <v>10600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6009900</v>
+        <v>-4461000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1016500</v>
+        <v>5744600</v>
       </c>
       <c r="F102" s="3">
-        <v>613900</v>
+        <v>-971600</v>
       </c>
       <c r="G102" s="3">
-        <v>-127900</v>
+        <v>586800</v>
       </c>
       <c r="H102" s="3">
-        <v>203100</v>
+        <v>-122300</v>
       </c>
       <c r="I102" s="3">
-        <v>-300500</v>
+        <v>194100</v>
       </c>
       <c r="J102" s="3">
+        <v>-287200</v>
+      </c>
+      <c r="K102" s="3">
         <v>651500</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/BASFY_YR_FIN.xlsx
+++ b/Financials/Yearly/BASFY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C949FFC7-5881-4CB7-99A9-3D0DAA8AFD1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BASFY" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,35 +654,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,97 +712,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>70320700</v>
+        <v>68817200</v>
       </c>
       <c r="E8" s="3">
-        <v>68691600</v>
+        <v>67222900</v>
       </c>
       <c r="F8" s="3">
-        <v>64570500</v>
+        <v>63189900</v>
       </c>
       <c r="G8" s="3">
-        <v>79043100</v>
+        <v>77353000</v>
       </c>
       <c r="H8" s="3">
-        <v>83393000</v>
+        <v>81609900</v>
       </c>
       <c r="I8" s="3">
-        <v>82997000</v>
+        <v>81222400</v>
       </c>
       <c r="J8" s="3">
-        <v>80928000</v>
+        <v>79197600</v>
       </c>
       <c r="K8" s="3">
         <v>86271500</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>49725500</v>
+        <v>48662300</v>
       </c>
       <c r="E9" s="3">
-        <v>46664700</v>
+        <v>45666900</v>
       </c>
       <c r="F9" s="3">
-        <v>44054900</v>
+        <v>43113000</v>
       </c>
       <c r="G9" s="3">
-        <v>57638900</v>
+        <v>56406500</v>
       </c>
       <c r="H9" s="3">
-        <v>62650800</v>
+        <v>61311200</v>
       </c>
       <c r="I9" s="3">
-        <v>62355700</v>
+        <v>61022400</v>
       </c>
       <c r="J9" s="3">
-        <v>125986000</v>
+        <v>123292200</v>
       </c>
       <c r="K9" s="3">
         <v>63369300</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>20595200</v>
+        <v>20154900</v>
       </c>
       <c r="E10" s="3">
-        <v>22026900</v>
+        <v>21555900</v>
       </c>
       <c r="F10" s="3">
-        <v>20515600</v>
+        <v>20076900</v>
       </c>
       <c r="G10" s="3">
-        <v>21404200</v>
+        <v>20946500</v>
       </c>
       <c r="H10" s="3">
-        <v>20742200</v>
+        <v>20298700</v>
       </c>
       <c r="I10" s="3">
-        <v>20641300</v>
+        <v>20199900</v>
       </c>
       <c r="J10" s="3">
-        <v>-45058000</v>
+        <v>-44094600</v>
       </c>
       <c r="K10" s="3">
         <v>22902200</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,37 +816,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2275400</v>
+        <v>2226700</v>
       </c>
       <c r="E12" s="3">
-        <v>2067800</v>
+        <v>2023600</v>
       </c>
       <c r="F12" s="3">
-        <v>2090300</v>
+        <v>2045600</v>
       </c>
       <c r="G12" s="3">
-        <v>2191200</v>
+        <v>2144400</v>
       </c>
       <c r="H12" s="3">
-        <v>2113800</v>
+        <v>2068600</v>
       </c>
       <c r="I12" s="3">
-        <v>2074600</v>
+        <v>2030200</v>
       </c>
       <c r="J12" s="3">
-        <v>4151400</v>
+        <v>4062600</v>
       </c>
       <c r="K12" s="3">
         <v>2099900</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,67 +876,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>462300</v>
+        <v>452400</v>
       </c>
       <c r="E14" s="3">
-        <v>402800</v>
+        <v>394200</v>
       </c>
       <c r="F14" s="3">
-        <v>540800</v>
+        <v>529200</v>
       </c>
       <c r="G14" s="3">
-        <v>343300</v>
+        <v>336000</v>
       </c>
       <c r="H14" s="3">
-        <v>197500</v>
+        <v>193200</v>
       </c>
       <c r="I14" s="3">
-        <v>354500</v>
+        <v>347000</v>
       </c>
       <c r="J14" s="3">
-        <v>423000</v>
+        <v>413900</v>
       </c>
       <c r="K14" s="3">
         <v>273500</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>80800</v>
+        <v>79100</v>
       </c>
       <c r="E15" s="3">
-        <v>248000</v>
+        <v>242700</v>
       </c>
       <c r="F15" s="3">
-        <v>378100</v>
+        <v>370000</v>
       </c>
       <c r="G15" s="3">
-        <v>757300</v>
+        <v>741200</v>
       </c>
       <c r="H15" s="3">
-        <v>415100</v>
+        <v>406300</v>
       </c>
       <c r="I15" s="3">
-        <v>278300</v>
+        <v>272300</v>
       </c>
       <c r="J15" s="3">
-        <v>423000</v>
+        <v>413900</v>
       </c>
       <c r="K15" s="3">
         <v>429600</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -982,67 +947,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>63551800</v>
+        <v>62192900</v>
       </c>
       <c r="E17" s="3">
-        <v>60179100</v>
+        <v>58892300</v>
       </c>
       <c r="F17" s="3">
-        <v>57530000</v>
+        <v>56300000</v>
       </c>
       <c r="G17" s="3">
-        <v>72032900</v>
+        <v>70492700</v>
       </c>
       <c r="H17" s="3">
-        <v>74836700</v>
+        <v>73236600</v>
       </c>
       <c r="I17" s="3">
-        <v>74963500</v>
+        <v>73360700</v>
       </c>
       <c r="J17" s="3">
-        <v>73363600</v>
+        <v>71794900</v>
       </c>
       <c r="K17" s="3">
         <v>76193200</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>6769000</v>
+        <v>6624200</v>
       </c>
       <c r="E18" s="3">
-        <v>8512500</v>
+        <v>8330500</v>
       </c>
       <c r="F18" s="3">
-        <v>7040500</v>
+        <v>6890000</v>
       </c>
       <c r="G18" s="3">
-        <v>7010200</v>
+        <v>6860300</v>
       </c>
       <c r="H18" s="3">
-        <v>8556300</v>
+        <v>8373300</v>
       </c>
       <c r="I18" s="3">
-        <v>8033400</v>
+        <v>7861700</v>
       </c>
       <c r="J18" s="3">
-        <v>7564500</v>
+        <v>7402700</v>
       </c>
       <c r="K18" s="3">
         <v>10078300</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1056,157 +1021,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-263700</v>
+        <v>-258000</v>
       </c>
       <c r="E20" s="3">
-        <v>-280500</v>
+        <v>-274500</v>
       </c>
       <c r="F20" s="3">
-        <v>-348900</v>
+        <v>-341500</v>
       </c>
       <c r="G20" s="3">
-        <v>-236700</v>
+        <v>-231700</v>
       </c>
       <c r="H20" s="3">
-        <v>148100</v>
+        <v>144900</v>
       </c>
       <c r="I20" s="3">
-        <v>22400</v>
+        <v>22000</v>
       </c>
       <c r="J20" s="3">
-        <v>722600</v>
+        <v>707100</v>
       </c>
       <c r="K20" s="3">
         <v>1346400</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>10722900</v>
+        <v>10490100</v>
       </c>
       <c r="E21" s="3">
-        <v>12970400</v>
+        <v>12689100</v>
       </c>
       <c r="F21" s="3">
-        <v>11517600</v>
+        <v>11267300</v>
       </c>
       <c r="G21" s="3">
-        <v>11776100</v>
+        <v>11520100</v>
       </c>
       <c r="H21" s="3">
-        <v>12590200</v>
+        <v>12317700</v>
       </c>
       <c r="I21" s="3">
-        <v>11783100</v>
+        <v>11528000</v>
       </c>
       <c r="J21" s="3">
-        <v>11985000</v>
+        <v>11725600</v>
       </c>
       <c r="K21" s="3">
         <v>15440700</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>572200</v>
+        <v>560000</v>
       </c>
       <c r="E22" s="3">
-        <v>510500</v>
+        <v>499600</v>
       </c>
       <c r="F22" s="3">
-        <v>638400</v>
+        <v>624800</v>
       </c>
       <c r="G22" s="3">
-        <v>548700</v>
+        <v>536900</v>
       </c>
       <c r="H22" s="3">
-        <v>622700</v>
+        <v>609400</v>
       </c>
       <c r="I22" s="3">
-        <v>650800</v>
+        <v>636800</v>
       </c>
       <c r="J22" s="3">
-        <v>1580900</v>
+        <v>1547100</v>
       </c>
       <c r="K22" s="3">
         <v>895600</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>5933100</v>
+        <v>5806200</v>
       </c>
       <c r="E23" s="3">
-        <v>7721500</v>
+        <v>7556400</v>
       </c>
       <c r="F23" s="3">
-        <v>6053100</v>
+        <v>5923700</v>
       </c>
       <c r="G23" s="3">
-        <v>6224800</v>
+        <v>6091700</v>
       </c>
       <c r="H23" s="3">
-        <v>8081700</v>
+        <v>7908900</v>
       </c>
       <c r="I23" s="3">
-        <v>7405100</v>
+        <v>7246800</v>
       </c>
       <c r="J23" s="3">
-        <v>6706100</v>
+        <v>6562700</v>
       </c>
       <c r="K23" s="3">
         <v>10529100</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1754800</v>
+        <v>1717300</v>
       </c>
       <c r="E24" s="3">
-        <v>1447400</v>
+        <v>1416400</v>
       </c>
       <c r="F24" s="3">
-        <v>1279100</v>
+        <v>1251700</v>
       </c>
       <c r="G24" s="3">
-        <v>1399100</v>
+        <v>1369200</v>
       </c>
       <c r="H24" s="3">
-        <v>1919700</v>
+        <v>1878700</v>
       </c>
       <c r="I24" s="3">
-        <v>1668400</v>
+        <v>1632700</v>
       </c>
       <c r="J24" s="3">
-        <v>1021000</v>
+        <v>999200</v>
       </c>
       <c r="K24" s="3">
         <v>2778400</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1236,67 +1201,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>4178300</v>
+        <v>4089000</v>
       </c>
       <c r="E26" s="3">
-        <v>6274200</v>
+        <v>6140000</v>
       </c>
       <c r="F26" s="3">
-        <v>4774100</v>
+        <v>4672000</v>
       </c>
       <c r="G26" s="3">
-        <v>4825700</v>
+        <v>4722500</v>
       </c>
       <c r="H26" s="3">
-        <v>6162000</v>
+        <v>6030200</v>
       </c>
       <c r="I26" s="3">
-        <v>5736700</v>
+        <v>5614100</v>
       </c>
       <c r="J26" s="3">
-        <v>5685100</v>
+        <v>5563600</v>
       </c>
       <c r="K26" s="3">
         <v>7750700</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>3873100</v>
+        <v>3790300</v>
       </c>
       <c r="E27" s="3">
-        <v>5966700</v>
+        <v>5839200</v>
       </c>
       <c r="F27" s="3">
-        <v>4550800</v>
+        <v>4453500</v>
       </c>
       <c r="G27" s="3">
-        <v>4473400</v>
+        <v>4377700</v>
       </c>
       <c r="H27" s="3">
-        <v>5783900</v>
+        <v>5660200</v>
       </c>
       <c r="I27" s="3">
-        <v>5376600</v>
+        <v>5261600</v>
       </c>
       <c r="J27" s="3">
-        <v>5022000</v>
+        <v>4914600</v>
       </c>
       <c r="K27" s="3">
         <v>7263500</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1326,15 +1291,15 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>1408100</v>
+        <v>1378000</v>
       </c>
       <c r="E29" s="3">
-        <v>1277900</v>
+        <v>1250600</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1356,7 +1321,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1386,7 +1351,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1416,67 +1381,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>263700</v>
+        <v>258000</v>
       </c>
       <c r="E32" s="3">
-        <v>280500</v>
+        <v>274500</v>
       </c>
       <c r="F32" s="3">
-        <v>348900</v>
+        <v>341500</v>
       </c>
       <c r="G32" s="3">
-        <v>236700</v>
+        <v>231700</v>
       </c>
       <c r="H32" s="3">
-        <v>-148100</v>
+        <v>-144900</v>
       </c>
       <c r="I32" s="3">
-        <v>-22400</v>
+        <v>-22000</v>
       </c>
       <c r="J32" s="3">
-        <v>-722600</v>
+        <v>-707100</v>
       </c>
       <c r="K32" s="3">
         <v>-1346400</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>5281200</v>
+        <v>5168300</v>
       </c>
       <c r="E33" s="3">
-        <v>7244700</v>
+        <v>7089800</v>
       </c>
       <c r="F33" s="3">
-        <v>4550800</v>
+        <v>4453500</v>
       </c>
       <c r="G33" s="3">
-        <v>4473400</v>
+        <v>4377700</v>
       </c>
       <c r="H33" s="3">
-        <v>5783900</v>
+        <v>5660200</v>
       </c>
       <c r="I33" s="3">
-        <v>5376600</v>
+        <v>5261600</v>
       </c>
       <c r="J33" s="3">
-        <v>5022000</v>
+        <v>4914600</v>
       </c>
       <c r="K33" s="3">
         <v>7263500</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1506,42 +1471,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>5281200</v>
+        <v>5168300</v>
       </c>
       <c r="E35" s="3">
-        <v>7244700</v>
+        <v>7089800</v>
       </c>
       <c r="F35" s="3">
-        <v>4550800</v>
+        <v>4453500</v>
       </c>
       <c r="G35" s="3">
-        <v>4473400</v>
+        <v>4377700</v>
       </c>
       <c r="H35" s="3">
-        <v>5783900</v>
+        <v>5660200</v>
       </c>
       <c r="I35" s="3">
-        <v>5376600</v>
+        <v>5261600</v>
       </c>
       <c r="J35" s="3">
-        <v>5022000</v>
+        <v>4914600</v>
       </c>
       <c r="K35" s="3">
         <v>7263500</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1571,7 +1536,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1585,7 +1550,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1599,277 +1564,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2580600</v>
+        <v>2525400</v>
       </c>
       <c r="E41" s="3">
-        <v>7287300</v>
+        <v>7131500</v>
       </c>
       <c r="F41" s="3">
-        <v>1542700</v>
+        <v>1509800</v>
       </c>
       <c r="G41" s="3">
-        <v>2514400</v>
+        <v>2460600</v>
       </c>
       <c r="H41" s="3">
-        <v>1927600</v>
+        <v>1886400</v>
       </c>
       <c r="I41" s="3">
-        <v>2049900</v>
+        <v>2006000</v>
       </c>
       <c r="J41" s="3">
-        <v>3841700</v>
+        <v>3759600</v>
       </c>
       <c r="K41" s="3">
         <v>4637700</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>386000</v>
+        <v>377700</v>
       </c>
       <c r="E42" s="3">
-        <v>58300</v>
+        <v>57100</v>
       </c>
       <c r="F42" s="3">
-        <v>601400</v>
+        <v>588500</v>
       </c>
       <c r="G42" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="H42" s="3">
-        <v>21300</v>
+        <v>20900</v>
       </c>
       <c r="I42" s="3">
-        <v>19100</v>
+        <v>18700</v>
       </c>
       <c r="J42" s="3">
-        <v>41500</v>
+        <v>40600</v>
       </c>
       <c r="K42" s="3">
         <v>38700</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>14955000</v>
+        <v>14635200</v>
       </c>
       <c r="E43" s="3">
-        <v>15399300</v>
+        <v>15070100</v>
       </c>
       <c r="F43" s="3">
-        <v>15171500</v>
+        <v>14847200</v>
       </c>
       <c r="G43" s="3">
-        <v>13420100</v>
+        <v>13133200</v>
       </c>
       <c r="H43" s="3">
-        <v>13873400</v>
+        <v>13576800</v>
       </c>
       <c r="I43" s="3">
-        <v>14372700</v>
+        <v>14065400</v>
       </c>
       <c r="J43" s="3">
-        <v>28117100</v>
+        <v>27515900</v>
       </c>
       <c r="K43" s="3">
         <v>32577900</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>13650100</v>
+        <v>13358300</v>
       </c>
       <c r="E44" s="3">
-        <v>11559900</v>
+        <v>11312700</v>
       </c>
       <c r="F44" s="3">
-        <v>11225500</v>
+        <v>10985500</v>
       </c>
       <c r="G44" s="3">
-        <v>10875400</v>
+        <v>10642900</v>
       </c>
       <c r="H44" s="3">
-        <v>12640300</v>
+        <v>12370100</v>
       </c>
       <c r="I44" s="3">
-        <v>11399400</v>
+        <v>11155700</v>
       </c>
       <c r="J44" s="3">
-        <v>21891100</v>
+        <v>21423100</v>
       </c>
       <c r="K44" s="3">
         <v>23165100</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16921900</v>
+        <v>16560000</v>
       </c>
       <c r="E45" s="3">
-        <v>639500</v>
+        <v>625900</v>
       </c>
       <c r="F45" s="3">
-        <v>570000</v>
+        <v>557800</v>
       </c>
       <c r="G45" s="3">
-        <v>729300</v>
+        <v>713700</v>
       </c>
       <c r="H45" s="3">
-        <v>2302300</v>
+        <v>2253100</v>
       </c>
       <c r="I45" s="3">
-        <v>4448700</v>
+        <v>4353600</v>
       </c>
       <c r="J45" s="3">
-        <v>9227200</v>
+        <v>9030000</v>
       </c>
       <c r="K45" s="3">
         <v>1564700</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48493500</v>
+        <v>47456700</v>
       </c>
       <c r="E46" s="3">
-        <v>34944400</v>
+        <v>34197200</v>
       </c>
       <c r="F46" s="3">
-        <v>29111200</v>
+        <v>28488700</v>
       </c>
       <c r="G46" s="3">
-        <v>27562800</v>
+        <v>26973500</v>
       </c>
       <c r="H46" s="3">
-        <v>30765000</v>
+        <v>30107200</v>
       </c>
       <c r="I46" s="3">
-        <v>29116800</v>
+        <v>28494200</v>
       </c>
       <c r="J46" s="3">
-        <v>30817700</v>
+        <v>30158800</v>
       </c>
       <c r="K46" s="3">
         <v>30188000</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3111300</v>
+        <v>3044800</v>
       </c>
       <c r="E47" s="3">
-        <v>5970100</v>
+        <v>5842500</v>
       </c>
       <c r="F47" s="3">
-        <v>5892700</v>
+        <v>5766700</v>
       </c>
       <c r="G47" s="3">
-        <v>5567300</v>
+        <v>5448300</v>
       </c>
       <c r="H47" s="3">
-        <v>4246700</v>
+        <v>4155900</v>
       </c>
       <c r="I47" s="3">
-        <v>6388600</v>
+        <v>6252000</v>
       </c>
       <c r="J47" s="3">
-        <v>8872700</v>
+        <v>8683000</v>
       </c>
       <c r="K47" s="3">
         <v>7939700</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>23315000</v>
+        <v>22816400</v>
       </c>
       <c r="E48" s="3">
-        <v>28339200</v>
+        <v>27733300</v>
       </c>
       <c r="F48" s="3">
-        <v>29635100</v>
+        <v>29001500</v>
       </c>
       <c r="G48" s="3">
-        <v>28341500</v>
+        <v>27735500</v>
       </c>
       <c r="H48" s="3">
-        <v>26362300</v>
+        <v>25798600</v>
       </c>
       <c r="I48" s="3">
-        <v>21574700</v>
+        <v>21113400</v>
       </c>
       <c r="J48" s="3">
-        <v>39030700</v>
+        <v>38196100</v>
       </c>
       <c r="K48" s="3">
         <v>40083300</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18573400</v>
+        <v>18176300</v>
       </c>
       <c r="E49" s="3">
-        <v>15252300</v>
+        <v>14926200</v>
       </c>
       <c r="F49" s="3">
-        <v>17011600</v>
+        <v>16647900</v>
       </c>
       <c r="G49" s="3">
-        <v>14066400</v>
+        <v>13765600</v>
       </c>
       <c r="H49" s="3">
-        <v>14548800</v>
+        <v>14237800</v>
       </c>
       <c r="I49" s="3">
-        <v>13827400</v>
+        <v>13531800</v>
       </c>
       <c r="J49" s="3">
-        <v>27414700</v>
+        <v>26828500</v>
       </c>
       <c r="K49" s="3">
         <v>27900300</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1899,7 +1864,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1929,37 +1894,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3621800</v>
+        <v>3544300</v>
       </c>
       <c r="E52" s="3">
-        <v>3870900</v>
+        <v>3788100</v>
       </c>
       <c r="F52" s="3">
-        <v>4177200</v>
+        <v>4087900</v>
       </c>
       <c r="G52" s="3">
-        <v>3939300</v>
+        <v>3855100</v>
       </c>
       <c r="H52" s="3">
-        <v>4141300</v>
+        <v>4052700</v>
       </c>
       <c r="I52" s="3">
-        <v>1128700</v>
+        <v>1104600</v>
       </c>
       <c r="J52" s="3">
-        <v>4115500</v>
+        <v>4027500</v>
       </c>
       <c r="K52" s="3">
         <v>3732700</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1989,37 +1954,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>97115000</v>
+        <v>95038500</v>
       </c>
       <c r="E54" s="3">
-        <v>88376900</v>
+        <v>86487300</v>
       </c>
       <c r="F54" s="3">
-        <v>85827700</v>
+        <v>83992600</v>
       </c>
       <c r="G54" s="3">
-        <v>79477300</v>
+        <v>77777900</v>
       </c>
       <c r="H54" s="3">
-        <v>80064100</v>
+        <v>78352200</v>
       </c>
       <c r="I54" s="3">
-        <v>72036200</v>
+        <v>70496000</v>
       </c>
       <c r="J54" s="3">
-        <v>70377900</v>
+        <v>68873100</v>
       </c>
       <c r="K54" s="3">
         <v>69832300</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2033,7 +1998,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2047,187 +2012,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5746800</v>
+        <v>5624000</v>
       </c>
       <c r="E57" s="3">
-        <v>5577400</v>
+        <v>5458200</v>
       </c>
       <c r="F57" s="3">
-        <v>5172400</v>
+        <v>5061800</v>
       </c>
       <c r="G57" s="3">
-        <v>4510400</v>
+        <v>4414000</v>
       </c>
       <c r="H57" s="3">
-        <v>5454000</v>
+        <v>5337400</v>
       </c>
       <c r="I57" s="3">
-        <v>5781600</v>
+        <v>5658000</v>
       </c>
       <c r="J57" s="3">
-        <v>10320100</v>
+        <v>10099400</v>
       </c>
       <c r="K57" s="3">
         <v>11677100</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6181000</v>
+        <v>6048900</v>
       </c>
       <c r="E58" s="3">
-        <v>2801600</v>
+        <v>2741700</v>
       </c>
       <c r="F58" s="3">
-        <v>4251200</v>
+        <v>4160300</v>
       </c>
       <c r="G58" s="3">
-        <v>4595700</v>
+        <v>4497400</v>
       </c>
       <c r="H58" s="3">
-        <v>3998800</v>
+        <v>3913300</v>
       </c>
       <c r="I58" s="3">
-        <v>3667800</v>
+        <v>3589400</v>
       </c>
       <c r="J58" s="3">
-        <v>9377600</v>
+        <v>9177100</v>
       </c>
       <c r="K58" s="3">
         <v>9188600</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14247000</v>
+        <v>13942400</v>
       </c>
       <c r="E59" s="3">
-        <v>8316200</v>
+        <v>8138400</v>
       </c>
       <c r="F59" s="3">
-        <v>7761900</v>
+        <v>7596000</v>
       </c>
       <c r="G59" s="3">
-        <v>6866600</v>
+        <v>6719800</v>
       </c>
       <c r="H59" s="3">
-        <v>8379000</v>
+        <v>8199900</v>
       </c>
       <c r="I59" s="3">
-        <v>9550400</v>
+        <v>9346200</v>
       </c>
       <c r="J59" s="3">
-        <v>18497100</v>
+        <v>18101600</v>
       </c>
       <c r="K59" s="3">
         <v>16962700</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>26174900</v>
+        <v>25615200</v>
       </c>
       <c r="E60" s="3">
-        <v>16695200</v>
+        <v>16338200</v>
       </c>
       <c r="F60" s="3">
-        <v>17185500</v>
+        <v>16818100</v>
       </c>
       <c r="G60" s="3">
-        <v>15972600</v>
+        <v>15631100</v>
       </c>
       <c r="H60" s="3">
-        <v>17831800</v>
+        <v>17450500</v>
       </c>
       <c r="I60" s="3">
-        <v>16088200</v>
+        <v>15744200</v>
       </c>
       <c r="J60" s="3">
-        <v>18748500</v>
+        <v>18347600</v>
       </c>
       <c r="K60" s="3">
         <v>18487500</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17304500</v>
+        <v>16934500</v>
       </c>
       <c r="E61" s="3">
-        <v>17541200</v>
+        <v>17166100</v>
       </c>
       <c r="F61" s="3">
-        <v>14169600</v>
+        <v>13866600</v>
       </c>
       <c r="G61" s="3">
-        <v>12547200</v>
+        <v>12278900</v>
       </c>
       <c r="H61" s="3">
-        <v>13362900</v>
+        <v>13077200</v>
       </c>
       <c r="I61" s="3">
-        <v>12592100</v>
+        <v>12322900</v>
       </c>
       <c r="J61" s="3">
-        <v>9834200</v>
+        <v>9624000</v>
       </c>
       <c r="K61" s="3">
         <v>10176900</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13121700</v>
+        <v>12841100</v>
       </c>
       <c r="E62" s="3">
-        <v>15144600</v>
+        <v>14820800</v>
       </c>
       <c r="F62" s="3">
-        <v>17931600</v>
+        <v>17548200</v>
       </c>
       <c r="G62" s="3">
-        <v>15564200</v>
+        <v>15231500</v>
       </c>
       <c r="H62" s="3">
-        <v>17234900</v>
+        <v>16866400</v>
       </c>
       <c r="I62" s="3">
-        <v>12307100</v>
+        <v>12044000</v>
       </c>
       <c r="J62" s="3">
-        <v>26530600</v>
+        <v>25963300</v>
       </c>
       <c r="K62" s="3">
         <v>23594800</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2257,7 +2222,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2287,7 +2252,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2317,37 +2282,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57784700</v>
+        <v>56549200</v>
       </c>
       <c r="E66" s="3">
-        <v>50412100</v>
+        <v>49334200</v>
       </c>
       <c r="F66" s="3">
-        <v>50140600</v>
+        <v>49068500</v>
       </c>
       <c r="G66" s="3">
-        <v>44789800</v>
+        <v>43832200</v>
       </c>
       <c r="H66" s="3">
-        <v>49081500</v>
+        <v>48032000</v>
       </c>
       <c r="I66" s="3">
-        <v>41694300</v>
+        <v>40802800</v>
       </c>
       <c r="J66" s="3">
-        <v>42764600</v>
+        <v>41850300</v>
       </c>
       <c r="K66" s="3">
         <v>41455400</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2361,7 +2326,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2391,7 +2356,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2421,7 +2386,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2451,7 +2416,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2481,37 +2446,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44674300</v>
+        <v>43719100</v>
       </c>
       <c r="E72" s="3">
-        <v>42571700</v>
+        <v>41661400</v>
       </c>
       <c r="F72" s="3">
-        <v>38871300</v>
+        <v>38040200</v>
       </c>
       <c r="G72" s="3">
-        <v>37318500</v>
+        <v>36520600</v>
       </c>
       <c r="H72" s="3">
-        <v>35813900</v>
+        <v>35048200</v>
       </c>
       <c r="I72" s="3">
-        <v>32837300</v>
+        <v>32135200</v>
       </c>
       <c r="J72" s="3">
-        <v>52735800</v>
+        <v>51608200</v>
       </c>
       <c r="K72" s="3">
         <v>51432800</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2541,7 +2506,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2571,7 +2536,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2601,37 +2566,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39330200</v>
+        <v>38489300</v>
       </c>
       <c r="E76" s="3">
-        <v>37964800</v>
+        <v>37153000</v>
       </c>
       <c r="F76" s="3">
-        <v>35687100</v>
+        <v>34924100</v>
       </c>
       <c r="G76" s="3">
-        <v>34687400</v>
+        <v>33945800</v>
       </c>
       <c r="H76" s="3">
-        <v>30982600</v>
+        <v>30320200</v>
       </c>
       <c r="I76" s="3">
-        <v>30342000</v>
+        <v>29693200</v>
       </c>
       <c r="J76" s="3">
-        <v>27613300</v>
+        <v>27022900</v>
       </c>
       <c r="K76" s="3">
         <v>28376900</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2661,12 +2626,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2696,37 +2661,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>5281200</v>
+        <v>5168300</v>
       </c>
       <c r="E81" s="3">
-        <v>7244700</v>
+        <v>7089800</v>
       </c>
       <c r="F81" s="3">
-        <v>4550800</v>
+        <v>4453500</v>
       </c>
       <c r="G81" s="3">
-        <v>4473400</v>
+        <v>4377700</v>
       </c>
       <c r="H81" s="3">
-        <v>5783900</v>
+        <v>5660200</v>
       </c>
       <c r="I81" s="3">
-        <v>5376600</v>
+        <v>5261600</v>
       </c>
       <c r="J81" s="3">
-        <v>5022000</v>
+        <v>4914600</v>
       </c>
       <c r="K81" s="3">
         <v>7263500</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2740,37 +2705,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4207500</v>
+        <v>4117500</v>
       </c>
       <c r="E83" s="3">
-        <v>4726900</v>
+        <v>4625900</v>
       </c>
       <c r="F83" s="3">
-        <v>4814500</v>
+        <v>4711500</v>
       </c>
       <c r="G83" s="3">
-        <v>4990600</v>
+        <v>4883900</v>
       </c>
       <c r="H83" s="3">
-        <v>3876500</v>
+        <v>3793600</v>
       </c>
       <c r="I83" s="3">
-        <v>3718300</v>
+        <v>3638800</v>
       </c>
       <c r="J83" s="3">
-        <v>3689100</v>
+        <v>3610200</v>
       </c>
       <c r="K83" s="3">
         <v>4013300</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2800,7 +2765,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2830,7 +2795,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2860,7 +2825,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2920,37 +2885,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8907500</v>
+        <v>8717000</v>
       </c>
       <c r="E89" s="3">
-        <v>9866800</v>
+        <v>9655800</v>
       </c>
       <c r="F89" s="3">
-        <v>8659500</v>
+        <v>8474400</v>
       </c>
       <c r="G89" s="3">
-        <v>10602800</v>
+        <v>10376100</v>
       </c>
       <c r="H89" s="3">
-        <v>7803400</v>
+        <v>7636600</v>
       </c>
       <c r="I89" s="3">
-        <v>9089200</v>
+        <v>8894900</v>
       </c>
       <c r="J89" s="3">
-        <v>7409600</v>
+        <v>7251200</v>
       </c>
       <c r="K89" s="3">
         <v>8336400</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2964,37 +2929,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4369000</v>
+        <v>-4275600</v>
       </c>
       <c r="E91" s="3">
-        <v>-4483500</v>
+        <v>-4387600</v>
       </c>
       <c r="F91" s="3">
-        <v>-4650600</v>
+        <v>-4551200</v>
       </c>
       <c r="G91" s="3">
-        <v>-6521000</v>
+        <v>-6381600</v>
       </c>
       <c r="H91" s="3">
-        <v>-5942100</v>
+        <v>-5815000</v>
       </c>
       <c r="I91" s="3">
-        <v>-5467500</v>
+        <v>-5350600</v>
       </c>
       <c r="J91" s="3">
-        <v>-4504800</v>
+        <v>-4408500</v>
       </c>
       <c r="K91" s="3">
         <v>-4002700</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3024,7 +2989,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3054,37 +3019,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-13244000</v>
+        <v>-12960800</v>
       </c>
       <c r="E94" s="3">
-        <v>-4440800</v>
+        <v>-4345900</v>
       </c>
       <c r="F94" s="3">
-        <v>-7281700</v>
+        <v>-7126000</v>
       </c>
       <c r="G94" s="3">
-        <v>-5873600</v>
+        <v>-5748000</v>
       </c>
       <c r="H94" s="3">
-        <v>-5044500</v>
+        <v>-4936600</v>
       </c>
       <c r="I94" s="3">
-        <v>-6725200</v>
+        <v>-6581400</v>
       </c>
       <c r="J94" s="3">
-        <v>-4462200</v>
+        <v>-4366700</v>
       </c>
       <c r="K94" s="3">
         <v>-2040100</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3098,37 +3063,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3194300</v>
+        <v>-3126000</v>
       </c>
       <c r="E96" s="3">
-        <v>-3091100</v>
+        <v>-3025000</v>
       </c>
       <c r="F96" s="3">
-        <v>-2989000</v>
+        <v>-2925100</v>
       </c>
       <c r="G96" s="3">
-        <v>-2885800</v>
+        <v>-2824100</v>
       </c>
       <c r="H96" s="3">
-        <v>-2782500</v>
+        <v>-2723000</v>
       </c>
       <c r="I96" s="3">
-        <v>-2679300</v>
+        <v>-2622000</v>
       </c>
       <c r="J96" s="3">
-        <v>-2576100</v>
+        <v>-2521000</v>
       </c>
       <c r="K96" s="3">
         <v>-2372300</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3158,7 +3123,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3188,7 +3153,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3218,90 +3183,90 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-58300</v>
+        <v>-57100</v>
       </c>
       <c r="E100" s="3">
-        <v>442100</v>
+        <v>432600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2423500</v>
+        <v>-2371700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4121100</v>
+        <v>-4033000</v>
       </c>
       <c r="H100" s="3">
-        <v>-2780300</v>
+        <v>-2720800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2102600</v>
+        <v>-2057700</v>
       </c>
       <c r="J100" s="3">
-        <v>-3258300</v>
+        <v>-3188600</v>
       </c>
       <c r="K100" s="3">
         <v>-5655400</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-66200</v>
+        <v>-64800</v>
       </c>
       <c r="E101" s="3">
-        <v>-123400</v>
+        <v>-120800</v>
       </c>
       <c r="F101" s="3">
-        <v>74100</v>
+        <v>72500</v>
       </c>
       <c r="G101" s="3">
-        <v>-21300</v>
+        <v>-20900</v>
       </c>
       <c r="H101" s="3">
-        <v>-101000</v>
+        <v>-98800</v>
       </c>
       <c r="I101" s="3">
-        <v>-67300</v>
+        <v>-65900</v>
       </c>
       <c r="J101" s="3">
-        <v>23600</v>
+        <v>23100</v>
       </c>
       <c r="K101" s="3">
         <v>10600</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4461000</v>
+        <v>-4365600</v>
       </c>
       <c r="E102" s="3">
-        <v>5744600</v>
+        <v>5621800</v>
       </c>
       <c r="F102" s="3">
-        <v>-971600</v>
+        <v>-950900</v>
       </c>
       <c r="G102" s="3">
-        <v>586800</v>
+        <v>574300</v>
       </c>
       <c r="H102" s="3">
-        <v>-122300</v>
+        <v>-119700</v>
       </c>
       <c r="I102" s="3">
-        <v>194100</v>
+        <v>190000</v>
       </c>
       <c r="J102" s="3">
-        <v>-287200</v>
+        <v>-281100</v>
       </c>
       <c r="K102" s="3">
         <v>651500</v>
